--- a/Warehouse/FA/judgement_logs_run4o.xlsx
+++ b/Warehouse/FA/judgement_logs_run4o.xlsx
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for the upcoming event.
+MSG: I have decided to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie."
+MSG: The decision is to acquire the rights to show **"Barbie"** for Friday's movie event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday showing.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made. This film will be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. The rights for "Barbie" will be acquired for the upcoming screening event.
+MSG: I have recorded the decision to acquire rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for showing "Barbie" based on the committee's discussions and emphasis on community involvement.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the high school event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the public performance rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for the graduation event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the high school graduation event.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show **"Barbie"** has been made and the rights for the movie will be acquired.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the high school event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the assembly scheduled on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly film on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the students' event.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the high school assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" for the Friday graduation event.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been successfully acquired, and that will be the film shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the school's event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety on Friday.
+MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety during Friday's assembly.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the event.
+MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming student event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's discussion and the lack of consensus regarding which movie to show on Friday, I will record the decision as no decision being made.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it aligns best with the committee's goal of fostering meaningful discussions among the seniors.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as it aligns with the committee's focus on providing an uplifting and relatable experience for students.
+MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully. The committee's plan for a dual screening aligns with their objective of providing a well-rounded experience for students.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and the overall sentiment that it provides an uplifting and engaging experience for the students.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie showing on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the school's event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/FA/judgement_logs_run4o.xlsx
+++ b/Warehouse/FA/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision regarding Friday's movie was not reached, so I have called the no_decision function.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
+MSG: The decision has been recorded as no selection being made for the movie on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding Friday's movie has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded: there was no agreement on a movie choice for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for the movie "Barbie."
+MSG: The decision process concluded without selecting a movie for Friday, and thus no further action is taken.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, indicating that no definitive choice about Friday's movie has been made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
+MSG: The function has been called successfully, indicating that no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show **"Barbie"** for Friday's movie event.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday cannot be made.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as having no outcome for the movie selection.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made. This film will be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for "Barbie" for the upcoming event.
+MSG: The decision process did not result in an agreement on a movie to be shown on Friday; hence, no further action will be taken.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not yield a final choice regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the high school event.
+MSG: The decision has been recorded as no decision was made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no movie being selected.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without reaching a consensus on which movie to show on Friday, so no specific movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired for the screening.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: I have called the no_decision function, indicating that no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision process did not lead to an agreement on which movie to show on Friday, so no action on acquiring rights is necessary.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the high school graduation event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision for Friday's movie cannot be made, as the committee ended the conversation without a definitive choice.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly film on Friday.
+MSG: The decision has been recorded successfully for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the students' event.
+MSG: The decision regarding Friday's movie has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and there is currently no selected movie for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming assembly.
+MSG: The committee did not reach a decision regarding the movie to show on Friday. Therefore, the outcome is recorded as no decision made.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the Friday graduation event.
+MSG: The decision about what movie to show on Friday has not been reached.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: A decision about which movie to show on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about Friday's movie was not reached.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety during Friday's assembly.
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and rights for both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no_decision.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no agreement on a movie for Friday, and thus no movie rights will be acquired.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have executed the function to indicate that no decision was made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday remains undecided.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision indicates that no definitive choice was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been recorded successfully. The committee's plan for a dual screening aligns with their objective of providing a well-rounded experience for students.
+MSG: The rights to both movies have been successfully acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and the overall sentiment that it provides an uplifting and engaging experience for the students.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, and therefore, no movie was selected.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made, as the conversation ended without a clear agreement.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday as there was no agreement reached by the committee.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/FA/judgement_logs_run4o.xlsx
+++ b/Warehouse/FA/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie was not reached, so I have called the no_decision function.
+MSG: The decision has been recorded with no agreement on a movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection being made for the movie on Friday.
+MSG: The decision has been recorded as a no-decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
+MSG: The movie "Barbie" has been successfully acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has been recorded as "no decision."
+MSG: The decision was made not to acquire any movie for Friday, and the conversation ended without a consensus on a specific film.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: there was no agreement on a movie choice for Friday.
+MSG: The function for no decision has been executed successfully.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, and thus no further action is taken.
+MSG: The decision has been made, and no specific movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no definitive choice about Friday's movie has been made.
+MSG: The decision regarding the movie to be shown on Friday is that there was no definite selection made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called successfully, indicating that no decision was made regarding the movie to be shown on Friday.
+MSG: No decision has been made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday cannot be made.
+MSG: The committee ended the conversation without a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as having no outcome for the movie selection.
+MSG: The decision about which movie to show on Friday has not been made, as the committee could not reach a consensus.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as no decision being made.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The conversation has concluded without reaching a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision has been recorded as no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached on a movie to show on Friday.
+MSG: The decision has been recorded with no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in an agreement on a movie to be shown on Friday; hence, no further action will be taken.
+MSG: I have recorded the decision: there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie was made.
+MSG: I have recorded the decision as no decision made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -880,13 +880,14 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not yield a final choice regarding the movie to be shown on Friday.
+MSG: None
+MSG: no_decision
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +903,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie was made.
+MSG: No decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +925,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be shown on Friday.
+MSG: The decision is recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +947,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The decision-making process for Friday's movie has concluded without a clear choice being made.
 </t>
         </is>
       </c>
@@ -968,7 +969,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding Friday's movie.
+MSG: The decision process concluded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -990,7 +991,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1013,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1034,7 +1035,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no movie being selected.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1057,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a consensus on which movie to show on Friday, so no specific movie rights will be acquired at this time.
+MSG: The decision has been recorded. No movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1078,7 +1079,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1100,7 +1101,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1123,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for the screening.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1144,13 +1145,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have called the no_decision function, indicating that no decision was reached regarding the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1167,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to an agreement on which movie to show on Friday, so no action on acquiring rights is necessary.
+MSG: The decision was recorded, indicating that there is no agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1189,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1211,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
+MSG: The decision process concluded without a clear choice of a movie for Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The conversation ended without a clear decision on which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1254,7 +1255,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie cannot be made, as the committee ended the conversation without a definitive choice.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1298,7 +1299,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has resulted in no conclusion.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is currently no selected movie for the Friday showing.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1343,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie to show on Friday. Therefore, the outcome is recorded as no decision made.
+MSG: The decision to show a movie on Friday was not made, resulting in no selection.
 </t>
         </is>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1387,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been reached.
+MSG: The decision-making process ended without a clear choice for a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1409,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision about which movie to show on Friday could not be reached.
+MSG: The decision about which movie to play on Friday was not finalized.
 </t>
         </is>
       </c>
@@ -1452,7 +1453,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie was not reached.
+MSG: No decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1475,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The movie "Barbie" has been successfully selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1540,7 +1541,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1562,13 +1563,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and rights for both movies will be acquired.
+MSG: The decision has been recorded as no specific movie was chosen.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1585,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no_decision.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision has been recorded with no definitive choice made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on a movie for Friday, and thus no movie rights will be acquired.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The function for no decision has been successfully called, indicating that a consensus on the movie to be shown on Friday was not reached.
 </t>
         </is>
       </c>
@@ -1694,7 +1695,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have executed the function to indicate that no decision was made regarding Friday's movie.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no conclusive agreement.
 </t>
         </is>
       </c>
@@ -1716,7 +1717,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday remains undecided.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision indicates that no definitive choice was reached regarding which movie to show on Friday.
+MSG: The decision process has concluded without a specific agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1783,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for showing on Friday.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, and therefore, no movie was selected.
+MSG: The decision resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1826,13 +1827,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, as the conversation ended without a clear agreement.
+MSG: The decision to acquire the rights for both "Oppenheimer" and "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1849,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday as there was no agreement reached by the committee.
+MSG: The decision regarding the movie for Friday has concluded without a selection being made. If you need assistance with anything else, feel free to ask!
 </t>
         </is>
       </c>
@@ -1870,7 +1871,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been made to select "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,13 +1893,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has not been finalized.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/FA/judgement_logs_run4o.xlsx
+++ b/Warehouse/FA/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision process ended without a definitive choice regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on a movie to be shown on Friday.
+MSG: The decision is that no movie will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no-decision regarding the movie to show on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie has been made.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully acquired for showing on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;07;11.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;09;12.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made not to acquire any movie for Friday, and the conversation ended without a consensus on a specific film.
+MSG: The decision-making process resulted in no movie selection for Friday, as they did not reach an agreement on which film to show.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;20;33.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;07;11.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed successfully.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;33;51.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;08;16.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and no specific movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;08;11.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;20;33.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday is that there was no definite selection made.
+MSG: The decision has been recorded, and no movie selection will be made for Friday.
 </t>
         </is>
       </c>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;28;46.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;33;51.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision has been made regarding the movie for Friday.
+MSG: The decision regarding which movie to show on Friday ended in no agreement.
 </t>
         </is>
       </c>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;54;01.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;08;11.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded, and it reflects that no definitive choice was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;15;46.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;28;46.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee ended the conversation without a decision regarding which movie to show on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;08;52.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;16;43.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, as the committee could not reach a consensus.
+MSG: The decision has been recorded as no agreement was reached on the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;01;46.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;54;01.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;24;56.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;15;46.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, so I cannot make a determination about acquiring rights for any movie.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;37;57.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;08;52.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation has concluded without reaching a decision about which movie to show on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;13;48.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;01;46.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie for Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;28;53.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;24;56.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on which movie to show on Friday.
+MSG: The decision process has concluded without reaching an agreement on which movie to show.
 </t>
         </is>
       </c>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;58;42.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;37;57.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision: there was no decision made regarding the movie to be shown on Friday.
+MSG: I have recorded the decision as "no_decision."
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_23;04;20.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;13;48.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision made regarding the movie to show on Friday.
+MSG: The decision regarding the movie for Friday was not made in the meeting.
 </t>
         </is>
       </c>
@@ -874,20 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;16;12.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;28;53.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: no_decision
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, , no_decision, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -897,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;28;08.json</t>
+          <t>./Warehouse/FA/run4o_08_11_2025 at_17;03;54.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to show on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -919,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;32;57.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;58;42.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is recorded as no decision was made regarding which movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday has concluded without a definitive choice.
 </t>
         </is>
       </c>
@@ -941,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;02;56.json</t>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_23;04;20.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process for Friday's movie has concluded without a clear choice being made.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -963,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;56;12.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;24;56.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded with no movie selected for Friday.
+MSG: The decision has been recorded; the movie selected for Friday is "Barbie."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -985,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;24;43.json</t>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;16;12.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1007,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;29;41.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;28;08.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision about which movie to show on Friday did not reach a conclusion.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1029,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;30;10.json</t>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;32;57.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
+MSG: The decision process concluded without a specific movie selected for Friday, so no decision has been made.
 </t>
         </is>
       </c>
@@ -1051,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;10;53.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;02;56.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. No movie was selected for Friday's showing.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1073,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;18;29.json</t>
+          <t>./Warehouse/FA/run4o_08_11_2025 at_17;02;22.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1095,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;19;59.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;14;34.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1117,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;19;31.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;04;54.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie that will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1139,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;22;11.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;05;58.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1161,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;42;30.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;56;12.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded, indicating that there is no agreement on a movie to show on Friday.
+MSG: The decision has been recorded with no agreement reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1183,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;23;38.json</t>
+          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;24;43.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The rights to "Barbie" have been acquired for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -1205,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;55;50.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;10;06.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear choice of a movie for Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1227,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;10;04.json</t>
+          <t>./Warehouse/FA/run4o_08_11_2025 at_17;02;53.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a clear decision on which movie to show on Friday. Therefore, I will call the no_decision function.
+MSG: The function has been successfully executed indicating that no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1249,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;30;53.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;29;41.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1271,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;09;16.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;16;10.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The movie "Oppenheimer" has been selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1293,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;11;47.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;30;10.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
@@ -1315,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;27;53.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;10;53.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1337,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;40;18.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;18;29.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not made, resulting in no selection.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1359,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;31;35.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;26;33.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1381,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;14;44.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;27;16.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear choice for a movie to show on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1403,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;26;35.json</t>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;19;59.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1425,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;21;33.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;10;48.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday was not finalized.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1447,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;25;47.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;19;31.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to show on Friday.
+MSG: The decision regarding Friday's movie could not be made.
 </t>
         </is>
       </c>
@@ -1469,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;06;23.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;02;48.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision concluded without a clear choice of movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1491,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;57;12.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;22;11.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for Friday's showing.
+MSG: The decision has been recorded with no movie selected for Friday. If there’s anything else you need, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1513,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;12;52.json</t>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;42;30.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision process has concluded with no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1535,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;58;02.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;06;56.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision regarding Friday's movie has resulted in no selection.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1557,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;30;40.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;25;42.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no specific movie was chosen.
+MSG: The decision has been recorded as a "no decision."
 </t>
         </is>
       </c>
@@ -1579,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;05;38.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;22;01.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie was made.
+MSG: The rights to both movies have been acquired for the showing.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1601,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;04;22.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;23;38.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no definitive choice made regarding the movie for Friday.
+MSG: The decision about which movie to show on Friday has not been made, so no action has been taken.
 </t>
         </is>
       </c>
@@ -1623,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;36;30.json</t>
+          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;55;50.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie was made.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1645,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;06;13.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;17;06.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been successfully called, indicating that a consensus on the movie to be shown on Friday was not reached.
+MSG: The decision about which movie to show on Friday was not clearly determined, so I will not acquire any movie rights at this time.
 </t>
         </is>
       </c>
@@ -1667,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;15;38.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;13;38.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no consensus was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1689,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;18;57.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;12;54.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no conclusive agreement.
+MSG: The decision has been recorded and there is no selection made for Friday's movie.
 </t>
         </is>
       </c>
@@ -1711,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;32;57.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;12;16.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1733,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;34;56.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;21;17.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision process has concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1755,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;49;12.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;10;04.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a specific agreement on which movie to show on Friday.
+MSG: The committee ended the conversation without reaching a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1777,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;32;04.json</t>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;30;53.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
+MSG: The decision has been recorded with no definitive choice made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1799,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;32;17.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;11;38.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on which movie to show on Friday.
+MSG: The decision regarding the movie for Friday has not been made.
 </t>
         </is>
       </c>
@@ -1821,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;31;46.json</t>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;27;43.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both "Oppenheimer" and "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1843,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;56;44.json</t>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;03;52.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has concluded without a selection being made. If you need assistance with anything else, feel free to ask!
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1865,13 +1864,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;27;17.json</t>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;09;16.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to select "Barbie" for the movie to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1887,17 +1886,743 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;11;47.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding Friday's movie has been recorded as "no decision." If you need further assistance, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;27;53.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;40;18.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;31;35.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;14;44.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;23;48.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the Friday movie selection.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;26;35.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;17;45.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;21;33.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about what movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;25;47.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to acquire was not made, resulting in no selection for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;20;34.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been successfully acquired for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;06;23.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process regarding the movie to be shown on Friday has concluded without a clear choice being made.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;57;12.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Barbie" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;12;52.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_15;58;02.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;01;53.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;30;40.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding the choice of movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;05;38.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not finalized, so no acquisition of movie rights will occur.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;04;22.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;36;30.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_13_2025 at_20;15;25.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;06;13.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected during the meeting.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;15;38.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;18;57.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;32;57.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show both movies, "Oppenheimer" and "Barbie," has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;34;56.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;49;12.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a "no decision," meaning no specific movie was selected to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_08_16_2025 at_15;22;44.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has not reached a decision about a movie for Friday, so no action will be taken regarding movie rights.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_07_01_2025 at_10;32;04.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;32;17.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not result in a plan for Friday's movie, so no decision was recorded.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_04_29_2025 at_04;31;46.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_06_27_2025 at_22;56;44.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no consensus was reached on a movie choice for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;27;17.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>./Warehouse/FA/run4o_discovery_05_04_2025 at_16;21;30.json</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been finalized.
-</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a definitive choice regarding which movie to show on Friday. Therefore, I've recorded the outcome as no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
